--- a/Messprotokoll.xlsx
+++ b/Messprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Dokumente\Studium\Konstanz\7. Semester\FP\EFNMR-Remote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC97215-223D-4436-A8F2-34BC7F37FA3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D48046-FC3B-47DA-9BF5-C1059F9BD868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Messprotokoll.xlsx
+++ b/Messprotokoll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Dokumente\Studium\Konstanz\7. Semester\FP\EFNMR-Remote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D48046-FC3B-47DA-9BF5-C1059F9BD868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE444B2-5D8D-4F34-AAC2-F6B237EA694C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10164" yWindow="2544" windowWidth="12084" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Simon Keegan, Philipp Gebauer</t>
   </si>
   <si>
     <t>FP II: EFNMR Remote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1 coil </t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>capacitance (nF)</t>
+  </si>
+  <si>
+    <t>inductance (nH)</t>
+  </si>
+  <si>
+    <t>f_0 (Hz)</t>
+  </si>
+  <si>
+    <t>electronic noise 60hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">higher models multiple of 60 </t>
+  </si>
+  <si>
+    <t>local noise</t>
+  </si>
+  <si>
+    <t>Teil 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noise </t>
+  </si>
+  <si>
+    <t>Monitor Noise.txt</t>
+  </si>
+  <si>
+    <t>optimized values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receive gain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numbver of scans </t>
+  </si>
+  <si>
+    <t>B1 freq (Hz)</t>
+  </si>
+  <si>
+    <t>Capacacity (nF)</t>
+  </si>
+  <si>
+    <t>Number data points</t>
+  </si>
+  <si>
+    <t>Acquistion time (s)</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>shimming</t>
+  </si>
+  <si>
+    <t>xmA</t>
+  </si>
+  <si>
+    <t>ymA</t>
+  </si>
+  <si>
+    <t>zmA</t>
+  </si>
+  <si>
+    <t>start</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +121,14 @@
       <b/>
       <u/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -75,10 +155,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -359,19 +440,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -379,9 +464,200 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>4.3</v>
+      </c>
+      <c r="C5">
+        <v>0.02</v>
+      </c>
+      <c r="D5">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="E5">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="F5">
+        <v>3760</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1837</v>
+      </c>
+      <c r="C15">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>13.8</v>
+      </c>
+      <c r="C16">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>16384</v>
+      </c>
+      <c r="C17">
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>1000</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>9.86</v>
+      </c>
+      <c r="C23">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>20.88</v>
+      </c>
+      <c r="C24">
+        <v>20.88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>-20.07</v>
+      </c>
+      <c r="C25">
+        <v>-20.07</v>
       </c>
     </row>
   </sheetData>

--- a/Messprotokoll.xlsx
+++ b/Messprotokoll.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Dokumente\Studium\Konstanz\7. Semester\FP\EFNMR-Remote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE444B2-5D8D-4F34-AAC2-F6B237EA694C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B71008-9AF5-4E3D-ABFB-56EFD0AB21D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10164" yWindow="2544" windowWidth="12084" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
